--- a/data_size_calcs.xlsx
+++ b/data_size_calcs.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\wind\merra2_subsetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A26062B-2237-4C51-A274-CD05EAF03462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD74C1F-4BB9-4192-B706-EC8324E05187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="4125" windowWidth="28800" windowHeight="15435" xr2:uid="{E8C98A85-DCFF-43ED-944D-949024C5FA12}"/>
+    <workbookView xWindow="3180" yWindow="4125" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{E8C98A85-DCFF-43ED-944D-949024C5FA12}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Download" sheetId="1" r:id="rId1"/>
     <sheet name="Compression" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>files</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>compression</t>
+  </si>
+  <si>
+    <t>as 8 parquet files</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>dropped a column. Stores coords on every row</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -143,7 +152,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0263017-7F9D-4DB7-B3B7-2109C828CC42}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -655,25 +664,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53EA898-17F7-41A4-A151-EBED3BED4534}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -681,7 +691,7 @@
         <v>5478</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -700,8 +710,11 @@
       <c r="G3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -728,8 +741,12 @@
         <f>F4/E4</f>
         <v>0.89617633795826601</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>F4/B4</f>
+        <v>0.90998321348635647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -747,6 +764,40 @@
       <c r="E5">
         <f>SUM(B5:D5)</f>
         <v>927668848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <f>B5*0.9</f>
+        <v>834584256</v>
+      </c>
+      <c r="C6">
+        <f>B5/10/4 * 8 * 3</f>
+        <v>556389504</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>C6+B6</f>
+        <v>1390973760</v>
+      </c>
+      <c r="F6">
+        <v>861177701</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G5:G6" si="0">F6/E6</f>
+        <v>0.61911858135986697</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H5:H6" si="1">F6/B6</f>
+        <v>1.0318643022664449</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
